--- a/_INTERPOLATION/coordinates_UTM.xlsx
+++ b/_INTERPOLATION/coordinates_UTM.xlsx
@@ -369,12 +369,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Y_UTM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>X_UTM</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_UTM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
